--- a/src/test/resources/automation.xlsx
+++ b/src/test/resources/automation.xlsx
@@ -15,8 +15,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>

--- a/src/test/resources/automation.xlsx
+++ b/src/test/resources/automation.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCartBook" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,13 +16,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>Test_Case</t>
+  </si>
+  <si>
+    <t>Test_Data</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Niraj</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>niraj8252@gmail.com</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>SofwareServices</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Karnatka</t>
+  </si>
+  <si>
+    <t>pin code</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,16 +88,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -47,14 +130,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -347,12 +469,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>9932866848</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4">
+        <v>828734</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/automation.xlsx
+++ b/src/test/resources/automation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Test_Case</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>fantastic book</t>
   </si>
 </sst>
 </file>
@@ -164,16 +170,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,89 +493,95 @@
     <col min="5" max="6" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3">
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:12" ht="30">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F3">
         <v>9932866848</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>828734</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
